--- a/biology/Zoologie/Doriprismatica/Doriprismatica.xlsx
+++ b/biology/Zoologie/Doriprismatica/Doriprismatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doriprismatica est un genre de nudibranches de la famille des Chromodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 octobre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 octobre 2018) :
 Doriprismatica atromarginata (Cuvier, 1804)
 Doriprismatica balut Matsuda &amp; Gosliner, 2018
 Doriprismatica dendrobranchia (Rudman, 1990)
@@ -560,7 +574,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Orbigny, A. D. d'. 1839-1842. Mollusques, Échinodermes, Foraminifères et Polypiers recueillis aux Iles Canaries par MM. Webb et Berthelot et décrits par Alcide d'Orbigny. Histoire naturelle des îles Canaries. II. 2e partie, Zoologie. 117 pages. Béthune (Ed.), Paris. [bas de la page 40] (lire en ligne sur Gallica - p. 40)</t>
         </is>
